--- a/Python/Hockey pool/ongoing scores.xlsx
+++ b/Python/Hockey pool/ongoing scores.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389B2CB-949E-498E-BD77-44D08044B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +183,32 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -198,6 +223,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -205,9 +231,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$13:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Danny Dugan Mount Delight</c:v>
+                  <c:v>Danny</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mount Delight</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -703,6 +735,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -711,9 +749,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$14:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jennifer Skaarup</c:v>
+                  <c:v>Jennifer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Skaarup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1209,6 +1250,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1217,9 +1264,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$15:$C$15</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sarah Ebbett</c:v>
+                  <c:v>Sarah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ebbett</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1715,6 +1765,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1723,9 +1779,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$16:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Rick Howard Snubber</c:v>
+                  <c:v>Rick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snubber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,6 +2283,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2229,9 +2297,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$17:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Arnold Dill</c:v>
+                  <c:v>Arnold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2727,6 +2798,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2735,9 +2812,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$18:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shelley Holmes</c:v>
+                  <c:v>Shelley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holmes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3233,6 +3313,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3241,9 +3327,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Janet Orser</c:v>
+                  <c:v>Janet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orser</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3739,6 +3828,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3747,9 +3842,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$20:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Annie Dugan</c:v>
+                  <c:v>Annie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4245,6 +4343,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4253,9 +4357,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lori Piper</c:v>
+                  <c:v>Lori</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4751,6 +4858,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4759,9 +4872,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$22:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jamie Merrithew</c:v>
+                  <c:v>Jamie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merrithew</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5257,8 +5373,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FAC9-40B3-A19D-5E2E1AB8C307}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="50733824"/>
         <c:axId val="50735360"/>
       </c:lineChart>
@@ -5267,22 +5397,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50733824"/>
         <c:crosses val="autoZero"/>
@@ -5291,9 +5429,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5301,6 +5441,6093 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7684749013360231E-2"/>
+          <c:y val="7.6023577746460139E-2"/>
+          <c:w val="0.92509101741622557"/>
+          <c:h val="0.80060367889180628"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Danny</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mount Delight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jennifer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Skaarup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sarah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ebbett</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Arnold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Shelley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holmes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Janet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Annie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Lori</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jamie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merrithew</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>130</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>131</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>135</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>113</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>141</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>118</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>116</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>123</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>133</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>128</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2023-04-18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2023-04-19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023-04-20</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2023-04-21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2023-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2023-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2023-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2023-04-25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2023-04-26</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2023-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2023-04-28</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2023-04-29</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2023-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2023-05-01</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2023-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2023-05-03</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-437F-4312-8139-AB2F391DEF86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537097648"/>
+        <c:axId val="537093328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537097648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537093328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537093328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537097648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5320,7 +11547,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5330,6 +11563,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C3C9B-CF25-2E7A-716A-599657C66E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5381,7 +11650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5413,9 +11682,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5447,6 +11734,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5622,14 +11927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -5644,7 +11949,7 @@
     <col min="18" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>45033</v>
       </c>
@@ -5700,7 +12005,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5741,7 +12046,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5782,7 +12087,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5823,7 +12128,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5864,7 +12169,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5905,7 +12210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5946,7 +12251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5987,7 +12292,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6028,7 +12333,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6069,7 +12374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6110,7 +12415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +12456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6195,7 +12500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6236,7 +12541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6277,7 +12582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6321,7 +12626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6362,7 +12667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6403,7 +12708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6444,7 +12749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6485,7 +12790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6526,7 +12831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -6574,24 +12879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/Hockey pool/ongoing scores.xlsx
+++ b/Python/Hockey pool/ongoing scores.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389B2CB-949E-498E-BD77-44D08044B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,35 +189,23 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.4365517911963269E-2"/>
-          <c:y val="2.4177954626521645E-2"/>
-          <c:w val="0.81846618614378575"/>
-          <c:h val="0.62804454516982988"/>
+          <c:x val="2.4365517911963275E-2"/>
+          <c:y val="2.4177954626521649E-2"/>
+          <c:w val="0.81846618614378563"/>
+          <c:h val="0.62804454516982999"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -231,15 +213,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$13:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Danny</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dugan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mount Delight</c:v>
+                  <c:v>Danny Dugan Mount Delight</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,9 +225,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -286,6 +262,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -321,6 +315,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -356,6 +368,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -391,6 +421,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -426,6 +474,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -461,6 +527,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -496,6 +580,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -531,6 +633,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -566,6 +686,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -601,6 +739,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -635,6 +791,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -688,6 +862,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -695,10 +899,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$T$13</c:f>
+              <c:f>Sheet1!$D$13:$AD$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -731,12 +935,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -749,12 +970,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$14:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jennifer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Skaarup</c:v>
+                  <c:v>Jennifer Skaarup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -764,9 +982,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -801,6 +1019,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -836,6 +1072,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -871,6 +1125,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -906,6 +1178,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -941,6 +1231,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -976,6 +1284,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1011,6 +1337,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1046,6 +1390,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1081,6 +1443,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1116,6 +1496,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1150,6 +1548,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1203,6 +1619,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1210,10 +1656,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$T$14</c:f>
+              <c:f>Sheet1!$D$14:$AD$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1246,12 +1692,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -1264,12 +1727,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$15:$C$15</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sarah</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ebbett</c:v>
+                  <c:v>Sarah Ebbett</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1279,9 +1739,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -1316,6 +1776,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1351,6 +1829,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1386,6 +1882,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1421,6 +1935,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1456,6 +1988,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1491,6 +2041,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1526,6 +2094,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1561,6 +2147,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1596,6 +2200,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1631,6 +2253,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1665,6 +2305,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1718,6 +2376,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1725,10 +2413,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$T$15</c:f>
+              <c:f>Sheet1!$D$15:$AD$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1761,12 +2449,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -1779,15 +2484,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$16:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rick</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Howard</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Snubber</c:v>
+                  <c:v>Rick Howard Snubber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1797,9 +2496,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -1834,6 +2533,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1869,6 +2586,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1904,6 +2639,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1939,6 +2692,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1974,6 +2745,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2009,6 +2798,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2044,6 +2851,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2079,6 +2904,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2114,6 +2957,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2149,6 +3010,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2183,6 +3062,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2236,6 +3133,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2243,10 +3170,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$T$16</c:f>
+              <c:f>Sheet1!$D$16:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2279,12 +3206,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -2297,12 +3241,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$17:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arnold</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dill</c:v>
+                  <c:v>Arnold Dill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2312,9 +3253,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -2349,6 +3290,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2384,6 +3343,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2419,6 +3396,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2454,6 +3449,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2489,6 +3502,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2524,6 +3555,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2559,6 +3608,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2594,6 +3661,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2629,6 +3714,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2664,6 +3767,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2698,6 +3819,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2751,6 +3890,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2758,10 +3927,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$T$17</c:f>
+              <c:f>Sheet1!$D$17:$AD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -2794,12 +3963,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -2812,12 +3998,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$18:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shelley</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Holmes</c:v>
+                  <c:v>Shelley Holmes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2827,9 +4010,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -2864,6 +4047,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2899,6 +4100,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2934,6 +4153,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2969,6 +4206,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3004,6 +4259,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3039,6 +4312,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3074,6 +4365,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3109,6 +4418,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3144,6 +4471,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3179,6 +4524,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3213,6 +4576,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3266,6 +4647,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3273,10 +4684,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$T$18</c:f>
+              <c:f>Sheet1!$D$18:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
@@ -3309,12 +4720,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -3327,12 +4755,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Janet</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Orser</c:v>
+                  <c:v>Janet Orser</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3342,9 +4767,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -3379,6 +4804,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3414,6 +4857,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3449,6 +4910,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3484,6 +4963,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3519,6 +5016,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3554,6 +5069,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3589,6 +5122,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3624,6 +5175,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3659,6 +5228,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3694,6 +5281,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3728,6 +5333,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3781,6 +5404,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3788,10 +5441,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$T$19</c:f>
+              <c:f>Sheet1!$D$19:$AD$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3824,12 +5477,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -3842,12 +5512,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$20:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Annie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dugan</c:v>
+                  <c:v>Annie Dugan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3857,9 +5524,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -3894,6 +5561,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3929,6 +5614,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3964,6 +5667,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3999,6 +5720,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4034,6 +5773,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4069,6 +5826,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4104,6 +5879,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4139,6 +5932,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4174,6 +5985,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4209,6 +6038,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4243,6 +6090,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4296,6 +6161,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4303,10 +6198,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$T$20</c:f>
+              <c:f>Sheet1!$D$20:$AD$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4339,12 +6234,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -4357,12 +6269,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lori</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Piper</c:v>
+                  <c:v>Lori Piper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4372,9 +6281,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -4409,6 +6318,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4444,6 +6371,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4479,6 +6424,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4514,6 +6477,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4549,6 +6530,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4584,6 +6583,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4619,6 +6636,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4654,6 +6689,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4689,6 +6742,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4724,6 +6795,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4758,6 +6847,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4811,6 +6918,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4818,10 +6955,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$T$21</c:f>
+              <c:f>Sheet1!$D$21:$AD$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4854,12 +6991,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -4872,12 +7026,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$22:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jamie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Merrithew</c:v>
+                  <c:v>Jamie Merrithew</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4887,9 +7038,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -4924,6 +7075,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4959,6 +7128,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4994,6 +7181,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5029,6 +7234,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5064,6 +7287,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5099,6 +7340,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5134,6 +7393,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5169,6 +7446,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5204,6 +7499,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5239,6 +7552,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5273,6 +7604,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5326,6 +7675,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5333,10 +7712,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$T$22</c:f>
+              <c:f>Sheet1!$D$22:$AD$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -5369,96 +7748,88 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="50733824"/>
-        <c:axId val="50735360"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="155073536"/>
+        <c:axId val="155095808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50733824"/>
+        <c:axId val="155073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50735360"/>
+        <c:crossAx val="155095808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50735360"/>
+        <c:axId val="155095808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50733824"/>
+        <c:crossAx val="155073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5487,22 +7858,20 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7684749013360231E-2"/>
+          <c:x val="2.7684749013360238E-2"/>
           <c:y val="7.6023577746460139E-2"/>
-          <c:w val="0.92509101741622557"/>
-          <c:h val="0.80060367889180628"/>
+          <c:w val="0.92509101741622579"/>
+          <c:h val="0.80060367889180639"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5510,15 +7879,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$13:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Danny</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dugan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mount Delight</c:v>
+                  <c:v>Danny Dugan Mount Delight</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5537,9 +7900,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -5574,6 +7937,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5609,6 +7990,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5644,6 +8043,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5679,6 +8096,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5714,6 +8149,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5749,6 +8202,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5784,6 +8255,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5819,6 +8308,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5854,6 +8361,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5889,6 +8414,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5923,6 +8466,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5976,6 +8537,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5983,10 +8574,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$T$13</c:f>
+              <c:f>Sheet1!$D$13:$AD$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -6019,12 +8610,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -6037,12 +8645,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$14:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jennifer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Skaarup</c:v>
+                  <c:v>Jennifer Skaarup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6061,9 +8666,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -6098,6 +8703,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6133,6 +8756,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6168,6 +8809,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6203,6 +8862,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6238,6 +8915,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6273,6 +8968,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6308,6 +9021,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6343,6 +9074,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6378,6 +9127,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6413,6 +9180,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6447,6 +9232,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6500,6 +9303,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6507,10 +9340,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$T$14</c:f>
+              <c:f>Sheet1!$D$14:$AD$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
@@ -6543,12 +9376,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -6561,12 +9411,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$15:$C$15</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sarah</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ebbett</c:v>
+                  <c:v>Sarah Ebbett</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6585,9 +9432,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -6622,6 +9469,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6657,6 +9522,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6692,6 +9575,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6727,6 +9628,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6762,6 +9681,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6797,6 +9734,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6832,6 +9787,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6867,6 +9840,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6902,6 +9893,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6937,6 +9946,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6971,6 +9998,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7024,6 +10069,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7031,10 +10106,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$T$15</c:f>
+              <c:f>Sheet1!$D$15:$AD$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7067,12 +10142,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -7085,15 +10177,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$16:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rick</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Howard</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Snubber</c:v>
+                  <c:v>Rick Howard Snubber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7112,9 +10198,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -7149,6 +10235,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7184,6 +10288,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7219,6 +10341,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7254,6 +10394,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7289,6 +10447,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7324,6 +10500,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7359,6 +10553,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7394,6 +10606,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7429,6 +10659,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7464,6 +10712,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7498,6 +10764,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7551,6 +10835,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7558,10 +10872,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$T$16</c:f>
+              <c:f>Sheet1!$D$16:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
@@ -7594,12 +10908,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -7612,12 +10943,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$17:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arnold</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dill</c:v>
+                  <c:v>Arnold Dill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7636,9 +10964,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -7673,6 +11001,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7708,6 +11054,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7743,6 +11107,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7778,6 +11160,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7813,6 +11213,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7848,6 +11266,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7883,6 +11319,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7918,6 +11372,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7953,6 +11425,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7988,6 +11478,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8022,6 +11530,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8075,6 +11601,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8082,10 +11638,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$T$17</c:f>
+              <c:f>Sheet1!$D$17:$AD$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -8118,12 +11674,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -8136,12 +11709,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$18:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shelley</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Holmes</c:v>
+                  <c:v>Shelley Holmes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8160,9 +11730,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -8197,6 +11767,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8232,6 +11820,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8267,6 +11873,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8302,6 +11926,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8337,6 +11979,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8372,6 +12032,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8407,6 +12085,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8442,6 +12138,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8477,6 +12191,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8512,6 +12244,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8546,6 +12296,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8599,6 +12367,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8606,10 +12404,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$T$18</c:f>
+              <c:f>Sheet1!$D$18:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
@@ -8642,12 +12440,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -8660,12 +12475,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Janet</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Orser</c:v>
+                  <c:v>Janet Orser</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8686,9 +12498,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -8723,6 +12535,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8758,6 +12588,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8793,6 +12641,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8828,6 +12694,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8863,6 +12747,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8898,6 +12800,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8933,6 +12853,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8968,6 +12906,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9003,6 +12959,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9038,6 +13012,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9072,6 +13064,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -9125,6 +13135,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9132,10 +13172,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$T$19</c:f>
+              <c:f>Sheet1!$D$19:$AD$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
@@ -9168,12 +13208,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -9186,12 +13243,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$20:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Annie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dugan</c:v>
+                  <c:v>Annie Dugan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9212,9 +13266,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -9249,6 +13303,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9284,6 +13356,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9319,6 +13409,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9354,6 +13462,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9389,6 +13515,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9424,6 +13568,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9459,6 +13621,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9494,6 +13674,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9529,6 +13727,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9564,6 +13780,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9598,6 +13832,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -9651,6 +13903,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9658,10 +13940,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$T$20</c:f>
+              <c:f>Sheet1!$D$20:$AD$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -9694,12 +13976,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -9712,12 +14011,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lori</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Piper</c:v>
+                  <c:v>Lori Piper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9738,9 +14034,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -9775,6 +14071,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9810,6 +14124,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9845,6 +14177,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9880,6 +14230,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9915,6 +14283,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9950,6 +14336,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9985,6 +14389,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10020,6 +14442,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10055,6 +14495,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10090,6 +14548,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10124,6 +14600,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10177,6 +14671,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -10184,10 +14708,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$T$21</c:f>
+              <c:f>Sheet1!$D$21:$AD$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -10220,12 +14744,29 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -10238,12 +14779,9 @@
             <c:strRef>
               <c:f>Sheet1!$A$22:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jamie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Merrithew</c:v>
+                  <c:v>Jamie Merrithew</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10264,9 +14802,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$T$12</c:f>
+              <c:f>Sheet1!$D$1:$AD$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -10301,6 +14839,24 @@
                   <c:pt idx="16">
                     <c:v>130</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>172</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10336,6 +14892,24 @@
                   <c:pt idx="16">
                     <c:v>131</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10371,6 +14945,24 @@
                   <c:pt idx="16">
                     <c:v>135</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>167</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10406,6 +14998,24 @@
                   <c:pt idx="16">
                     <c:v>113</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>147</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10441,6 +15051,24 @@
                   <c:pt idx="16">
                     <c:v>141</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10476,6 +15104,24 @@
                   <c:pt idx="16">
                     <c:v>118</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10511,6 +15157,24 @@
                   <c:pt idx="16">
                     <c:v>116</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>153</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10546,6 +15210,24 @@
                   <c:pt idx="16">
                     <c:v>123</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>155</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10581,6 +15263,24 @@
                   <c:pt idx="16">
                     <c:v>133</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>158</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10616,6 +15316,24 @@
                   <c:pt idx="16">
                     <c:v>128</c:v>
                   </c:pt>
+                  <c:pt idx="17">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>175</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10650,6 +15368,24 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>165</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10703,6 +15439,36 @@
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>2023-05-03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2023-05-04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2023-05-05</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2023-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2023-05-07</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2023-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2023-05-09</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2023-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2023-05-11</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2023-05-12</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2023-05-13</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -10710,10 +15476,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$T$22</c:f>
+              <c:f>Sheet1!$D$22:$AD$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -10746,34 +15512,43 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="537097648"/>
-        <c:axId val="537093328"/>
+        <c:dLbls/>
+        <c:axId val="289268480"/>
+        <c:axId val="289270016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="537097648"/>
+        <c:axId val="289268480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10790,7 +15565,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10825,16 +15599,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537093328"/>
+        <c:crossAx val="289270016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537093328"/>
+        <c:axId val="289270016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10852,7 +15625,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10887,7 +15659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537097648"/>
+        <c:crossAx val="289268480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10901,7 +15673,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10932,14 +15704,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10968,7 +15739,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11540,7 +16311,7 @@
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
@@ -11550,7 +16321,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11571,22 +16342,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>86564</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>467844</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C3C9B-CF25-2E7A-716A-599657C66E64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4C3C9B-CF25-2E7A-716A-599657C66E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11650,7 +16421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11682,27 +16453,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11734,24 +16487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11927,29 +16662,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" customWidth="1"/>
-    <col min="18" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="18" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="D1" s="1">
         <v>45033</v>
       </c>
@@ -12004,8 +16741,41 @@
       <c r="U1" s="1">
         <v>45050</v>
       </c>
+      <c r="V1" s="1">
+        <v>45051</v>
+      </c>
+      <c r="W1" s="1">
+        <v>45052</v>
+      </c>
+      <c r="X1" s="1">
+        <v>45053</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>45054</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45055</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>45056</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>45057</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45058</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>45059</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>45060</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>45061</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12045,8 +16815,26 @@
       <c r="T2">
         <v>126</v>
       </c>
+      <c r="U2">
+        <v>136</v>
+      </c>
+      <c r="V2">
+        <v>140</v>
+      </c>
+      <c r="Y2">
+        <v>156</v>
+      </c>
+      <c r="Z2">
+        <v>158</v>
+      </c>
+      <c r="AA2">
+        <v>159</v>
+      </c>
+      <c r="AB2">
+        <v>165</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12086,8 +16874,26 @@
       <c r="T3">
         <v>128</v>
       </c>
+      <c r="U3">
+        <v>139</v>
+      </c>
+      <c r="V3">
+        <v>142</v>
+      </c>
+      <c r="Y3">
+        <v>162</v>
+      </c>
+      <c r="Z3">
+        <v>164</v>
+      </c>
+      <c r="AA3">
+        <v>166</v>
+      </c>
+      <c r="AB3">
+        <v>175</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12127,8 +16933,26 @@
       <c r="T4">
         <v>133</v>
       </c>
+      <c r="U4">
+        <v>138</v>
+      </c>
+      <c r="V4">
+        <v>139</v>
+      </c>
+      <c r="Y4">
+        <v>149</v>
+      </c>
+      <c r="Z4">
+        <v>151</v>
+      </c>
+      <c r="AA4">
+        <v>153</v>
+      </c>
+      <c r="AB4">
+        <v>158</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12168,8 +16992,26 @@
       <c r="T5">
         <v>123</v>
       </c>
+      <c r="U5">
+        <v>128</v>
+      </c>
+      <c r="V5">
+        <v>132</v>
+      </c>
+      <c r="Y5">
+        <v>143</v>
+      </c>
+      <c r="Z5">
+        <v>144</v>
+      </c>
+      <c r="AA5">
+        <v>148</v>
+      </c>
+      <c r="AB5">
+        <v>155</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12209,8 +17051,26 @@
       <c r="T6">
         <v>116</v>
       </c>
+      <c r="U6">
+        <v>126</v>
+      </c>
+      <c r="V6">
+        <v>127</v>
+      </c>
+      <c r="Y6">
+        <v>142</v>
+      </c>
+      <c r="Z6">
+        <v>146</v>
+      </c>
+      <c r="AA6">
+        <v>146</v>
+      </c>
+      <c r="AB6">
+        <v>153</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12250,8 +17110,26 @@
       <c r="T7">
         <v>118</v>
       </c>
+      <c r="U7">
+        <v>127</v>
+      </c>
+      <c r="V7">
+        <v>131</v>
+      </c>
+      <c r="Y7">
+        <v>145</v>
+      </c>
+      <c r="Z7">
+        <v>145</v>
+      </c>
+      <c r="AA7">
+        <v>145</v>
+      </c>
+      <c r="AB7">
+        <v>153</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12291,8 +17169,26 @@
       <c r="T8">
         <v>141</v>
       </c>
+      <c r="U8">
+        <v>150</v>
+      </c>
+      <c r="V8">
+        <v>153</v>
+      </c>
+      <c r="Y8">
+        <v>163</v>
+      </c>
+      <c r="Z8">
+        <v>168</v>
+      </c>
+      <c r="AA8">
+        <v>172</v>
+      </c>
+      <c r="AB8">
+        <v>179</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12332,8 +17228,26 @@
       <c r="T9">
         <v>113</v>
       </c>
+      <c r="U9">
+        <v>122</v>
+      </c>
+      <c r="V9">
+        <v>124</v>
+      </c>
+      <c r="Y9">
+        <v>136</v>
+      </c>
+      <c r="Z9">
+        <v>137</v>
+      </c>
+      <c r="AA9">
+        <v>142</v>
+      </c>
+      <c r="AB9">
+        <v>147</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12373,8 +17287,26 @@
       <c r="T10">
         <v>135</v>
       </c>
+      <c r="U10">
+        <v>144</v>
+      </c>
+      <c r="V10">
+        <v>146</v>
+      </c>
+      <c r="Y10">
+        <v>157</v>
+      </c>
+      <c r="Z10">
+        <v>159</v>
+      </c>
+      <c r="AA10">
+        <v>160</v>
+      </c>
+      <c r="AB10">
+        <v>167</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -12414,8 +17346,26 @@
       <c r="T11">
         <v>131</v>
       </c>
+      <c r="U11">
+        <v>139</v>
+      </c>
+      <c r="V11">
+        <v>143</v>
+      </c>
+      <c r="Y11">
+        <v>155</v>
+      </c>
+      <c r="Z11">
+        <v>158</v>
+      </c>
+      <c r="AA11">
+        <v>158</v>
+      </c>
+      <c r="AB11">
+        <v>167</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -12455,8 +17405,26 @@
       <c r="T12">
         <v>130</v>
       </c>
+      <c r="U12">
+        <v>143</v>
+      </c>
+      <c r="V12">
+        <v>144</v>
+      </c>
+      <c r="Y12">
+        <v>162</v>
+      </c>
+      <c r="Z12">
+        <v>164</v>
+      </c>
+      <c r="AA12">
+        <v>167</v>
+      </c>
+      <c r="AB12">
+        <v>172</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -12499,8 +17467,26 @@
       <c r="T13">
         <v>128</v>
       </c>
+      <c r="U13">
+        <v>139</v>
+      </c>
+      <c r="V13">
+        <v>143</v>
+      </c>
+      <c r="Y13">
+        <v>164</v>
+      </c>
+      <c r="Z13">
+        <v>166</v>
+      </c>
+      <c r="AA13">
+        <v>172</v>
+      </c>
+      <c r="AB13">
+        <v>178</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -12540,8 +17526,26 @@
       <c r="T14">
         <v>119</v>
       </c>
+      <c r="U14">
+        <v>131</v>
+      </c>
+      <c r="V14">
+        <v>131</v>
+      </c>
+      <c r="Y14">
+        <v>147</v>
+      </c>
+      <c r="Z14">
+        <v>147</v>
+      </c>
+      <c r="AA14">
+        <v>147</v>
+      </c>
+      <c r="AB14">
+        <v>155</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -12581,8 +17585,26 @@
       <c r="T15">
         <v>117</v>
       </c>
+      <c r="U15">
+        <v>127</v>
+      </c>
+      <c r="V15">
+        <v>128</v>
+      </c>
+      <c r="Y15">
+        <v>140</v>
+      </c>
+      <c r="Z15">
+        <v>140</v>
+      </c>
+      <c r="AA15">
+        <v>143</v>
+      </c>
+      <c r="AB15">
+        <v>148</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -12625,8 +17647,26 @@
       <c r="T16">
         <v>116</v>
       </c>
+      <c r="U16">
+        <v>127</v>
+      </c>
+      <c r="V16">
+        <v>127</v>
+      </c>
+      <c r="Y16">
+        <v>141</v>
+      </c>
+      <c r="Z16">
+        <v>143</v>
+      </c>
+      <c r="AA16">
+        <v>143</v>
+      </c>
+      <c r="AB16">
+        <v>152</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12666,8 +17706,26 @@
       <c r="T17">
         <v>111</v>
       </c>
+      <c r="U17">
+        <v>119</v>
+      </c>
+      <c r="V17">
+        <v>121</v>
+      </c>
+      <c r="Y17">
+        <v>142</v>
+      </c>
+      <c r="Z17">
+        <v>142</v>
+      </c>
+      <c r="AA17">
+        <v>146</v>
+      </c>
+      <c r="AB17">
+        <v>155</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -12707,8 +17765,26 @@
       <c r="T18">
         <v>111</v>
       </c>
+      <c r="U18">
+        <v>119</v>
+      </c>
+      <c r="V18">
+        <v>121</v>
+      </c>
+      <c r="Y18">
+        <v>130</v>
+      </c>
+      <c r="Z18">
+        <v>132</v>
+      </c>
+      <c r="AA18">
+        <v>135</v>
+      </c>
+      <c r="AB18">
+        <v>142</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -12748,8 +17824,26 @@
       <c r="T19">
         <v>110</v>
       </c>
+      <c r="U19">
+        <v>121</v>
+      </c>
+      <c r="V19">
+        <v>123</v>
+      </c>
+      <c r="Y19">
+        <v>132</v>
+      </c>
+      <c r="Z19">
+        <v>135</v>
+      </c>
+      <c r="AA19">
+        <v>137</v>
+      </c>
+      <c r="AB19">
+        <v>140</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -12789,8 +17883,26 @@
       <c r="T20">
         <v>100</v>
       </c>
+      <c r="U20">
+        <v>107</v>
+      </c>
+      <c r="V20">
+        <v>108</v>
+      </c>
+      <c r="Y20">
+        <v>124</v>
+      </c>
+      <c r="Z20">
+        <v>124</v>
+      </c>
+      <c r="AA20">
+        <v>126</v>
+      </c>
+      <c r="AB20">
+        <v>132</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -12830,8 +17942,26 @@
       <c r="T21">
         <v>93</v>
       </c>
+      <c r="U21">
+        <v>95</v>
+      </c>
+      <c r="V21">
+        <v>98</v>
+      </c>
+      <c r="Y21">
+        <v>104</v>
+      </c>
+      <c r="Z21">
+        <v>104</v>
+      </c>
+      <c r="AA21">
+        <v>113</v>
+      </c>
+      <c r="AB21">
+        <v>114</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -12870,6 +18000,24 @@
       </c>
       <c r="T22">
         <v>100</v>
+      </c>
+      <c r="U22">
+        <v>108</v>
+      </c>
+      <c r="V22">
+        <v>109</v>
+      </c>
+      <c r="Y22">
+        <v>116</v>
+      </c>
+      <c r="Z22">
+        <v>118</v>
+      </c>
+      <c r="AA22">
+        <v>123</v>
+      </c>
+      <c r="AB22">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -12879,24 +18027,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/Hockey pool/ongoing scores.xlsx
+++ b/Python/Hockey pool/ongoing scores.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418D88B-C42F-46E0-98AC-2374527DA859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-23550" yWindow="-7185" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,9 +195,20 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -206,6 +223,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -213,9 +231,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$13:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Danny Dugan Mount Delight</c:v>
+                  <c:v>Danny</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mount Delight</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -280,6 +304,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -333,6 +360,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -386,6 +416,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -439,6 +472,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -492,6 +528,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -545,6 +584,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -598,6 +640,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -651,6 +696,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -704,6 +752,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -757,6 +808,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -809,6 +863,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -954,10 +1011,14 @@
                 <c:pt idx="24">
                   <c:v>178</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -970,9 +1031,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$14:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jennifer Skaarup</c:v>
+                  <c:v>Jennifer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Skaarup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1037,6 +1101,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1090,6 +1157,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1143,6 +1213,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1196,6 +1269,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1249,6 +1325,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1302,6 +1381,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1355,6 +1437,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1408,6 +1493,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1461,6 +1549,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1514,6 +1605,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1566,6 +1660,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1711,10 +1808,14 @@
                 <c:pt idx="24">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -1727,9 +1828,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$15:$C$15</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sarah Ebbett</c:v>
+                  <c:v>Sarah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ebbett</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1794,6 +1898,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1847,6 +1954,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1900,6 +2010,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1953,6 +2066,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2006,6 +2122,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2059,6 +2178,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2112,6 +2234,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2165,6 +2290,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2218,6 +2346,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2271,6 +2402,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2323,6 +2457,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2468,10 +2605,14 @@
                 <c:pt idx="24">
                   <c:v>148</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -2484,9 +2625,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$16:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Rick Howard Snubber</c:v>
+                  <c:v>Rick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snubber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,6 +2698,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2604,6 +2754,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2657,6 +2810,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2710,6 +2866,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2763,6 +2922,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2816,6 +2978,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2869,6 +3034,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2922,6 +3090,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2975,6 +3146,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3028,6 +3202,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3080,6 +3257,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3225,10 +3405,14 @@
                 <c:pt idx="24">
                   <c:v>152</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -3241,9 +3425,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$17:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Arnold Dill</c:v>
+                  <c:v>Arnold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3308,6 +3495,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3361,6 +3551,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3414,6 +3607,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3467,6 +3663,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3520,6 +3719,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3573,6 +3775,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3626,6 +3831,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3679,6 +3887,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3732,6 +3943,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3785,6 +3999,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3837,6 +4054,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3982,10 +4202,14 @@
                 <c:pt idx="24">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -3998,9 +4222,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$18:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shelley Holmes</c:v>
+                  <c:v>Shelley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holmes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4065,6 +4292,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4118,6 +4348,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4171,6 +4404,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4224,6 +4460,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4277,6 +4516,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4330,6 +4572,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4383,6 +4628,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4436,6 +4684,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4489,6 +4740,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4542,6 +4796,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4594,6 +4851,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4739,10 +4999,14 @@
                 <c:pt idx="24">
                   <c:v>142</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>148</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -4755,9 +5019,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Janet Orser</c:v>
+                  <c:v>Janet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orser</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4822,6 +5089,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4875,6 +5145,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4928,6 +5201,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4981,6 +5257,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5034,6 +5313,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5087,6 +5369,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5140,6 +5425,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5193,6 +5481,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5246,6 +5537,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5299,6 +5593,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5351,6 +5648,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5496,10 +5796,14 @@
                 <c:pt idx="24">
                   <c:v>140</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -5512,9 +5816,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$20:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Annie Dugan</c:v>
+                  <c:v>Annie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5579,6 +5886,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5632,6 +5942,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5685,6 +5998,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5738,6 +6054,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5791,6 +6110,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5844,6 +6166,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5897,6 +6222,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5950,6 +6278,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6003,6 +6334,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6056,6 +6390,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6108,6 +6445,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6253,10 +6593,14 @@
                 <c:pt idx="24">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -6269,9 +6613,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lori Piper</c:v>
+                  <c:v>Lori</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6336,6 +6683,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6389,6 +6739,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6442,6 +6795,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6495,6 +6851,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6548,6 +6907,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6601,6 +6963,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6654,6 +7019,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6707,6 +7075,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6760,6 +7131,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6813,6 +7187,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6865,6 +7242,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7010,10 +7390,14 @@
                 <c:pt idx="24">
                   <c:v>114</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>119</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
@@ -7026,9 +7410,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$22:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jamie Merrithew</c:v>
+                  <c:v>Jamie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merrithew</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7093,6 +7480,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7146,6 +7536,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7199,6 +7592,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7252,6 +7648,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7305,6 +7704,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7358,6 +7760,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7411,6 +7816,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7464,6 +7872,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7517,6 +7928,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7570,6 +7984,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7622,6 +8039,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7767,17 +8187,28 @@
                 <c:pt idx="24">
                   <c:v>127</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FAC9-40B3-A19D-5E2E1AB8C307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="155073536"/>
         <c:axId val="155095808"/>
       </c:lineChart>
@@ -7786,23 +8217,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="155095808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="155095808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="155073536"/>
         <c:crosses val="autoZero"/>
@@ -7811,10 +8249,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7825,11 +8264,21 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7858,6 +8307,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -7872,6 +8322,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7879,9 +8330,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$13:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Danny Dugan Mount Delight</c:v>
+                  <c:v>Danny</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mount Delight</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7955,6 +8412,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8008,6 +8468,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8061,6 +8524,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8114,6 +8580,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8167,6 +8636,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8220,6 +8692,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8273,6 +8748,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8326,6 +8804,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8379,6 +8860,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8432,6 +8916,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8484,6 +8971,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8629,10 +9119,14 @@
                 <c:pt idx="24">
                   <c:v>178</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -8645,9 +9139,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$14:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jennifer Skaarup</c:v>
+                  <c:v>Jennifer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Skaarup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8721,6 +9218,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8774,6 +9274,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8827,6 +9330,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8880,6 +9386,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8933,6 +9442,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8986,6 +9498,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9039,6 +9554,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9092,6 +9610,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9145,6 +9666,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9198,6 +9722,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9250,6 +9777,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -9395,10 +9925,14 @@
                 <c:pt idx="24">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -9411,9 +9945,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$15:$C$15</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sarah Ebbett</c:v>
+                  <c:v>Sarah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ebbett</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9487,6 +10024,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9540,6 +10080,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9593,6 +10136,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9646,6 +10192,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9699,6 +10248,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9752,6 +10304,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9805,6 +10360,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9858,6 +10416,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9911,6 +10472,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9964,6 +10528,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10016,6 +10583,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10161,10 +10731,14 @@
                 <c:pt idx="24">
                   <c:v>148</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -10177,9 +10751,15 @@
             <c:strRef>
               <c:f>Sheet1!$A$16:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Rick Howard Snubber</c:v>
+                  <c:v>Rick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snubber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10253,6 +10833,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10306,6 +10889,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10359,6 +10945,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10412,6 +11001,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10465,6 +11057,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10518,6 +11113,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10571,6 +11169,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10624,6 +11225,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10677,6 +11281,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10730,6 +11337,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10782,6 +11392,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10927,10 +11540,14 @@
                 <c:pt idx="24">
                   <c:v>152</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -10943,9 +11560,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$17:$C$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Arnold Dill</c:v>
+                  <c:v>Arnold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11019,6 +11639,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11072,6 +11695,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11125,6 +11751,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11178,6 +11807,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11231,6 +11863,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11284,6 +11919,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11337,6 +11975,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11390,6 +12031,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11443,6 +12087,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11496,6 +12143,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11548,6 +12198,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -11693,10 +12346,14 @@
                 <c:pt idx="24">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -11709,9 +12366,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$18:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shelley Holmes</c:v>
+                  <c:v>Shelley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Holmes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11785,6 +12445,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11838,6 +12501,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11891,6 +12557,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11944,6 +12613,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11997,6 +12669,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12050,6 +12725,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12103,6 +12781,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12156,6 +12837,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12209,6 +12893,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12262,6 +12949,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12314,6 +13004,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -12459,10 +13152,14 @@
                 <c:pt idx="24">
                   <c:v>142</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>148</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -12475,9 +13172,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Janet Orser</c:v>
+                  <c:v>Janet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orser</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12553,6 +13253,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12606,6 +13309,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12659,6 +13365,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12712,6 +13421,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12765,6 +13477,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12818,6 +13533,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12871,6 +13589,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12924,6 +13645,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12977,6 +13701,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13030,6 +13757,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13082,6 +13812,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13227,10 +13960,14 @@
                 <c:pt idx="24">
                   <c:v>140</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -13243,9 +13980,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$20:$C$20</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Annie Dugan</c:v>
+                  <c:v>Annie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dugan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13321,6 +14061,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13374,6 +14117,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13427,6 +14173,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13480,6 +14229,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13533,6 +14285,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13586,6 +14341,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13639,6 +14397,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13692,6 +14453,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13745,6 +14509,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13798,6 +14565,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13850,6 +14620,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13995,10 +14768,14 @@
                 <c:pt idx="24">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -14011,9 +14788,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$21:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Lori Piper</c:v>
+                  <c:v>Lori</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Piper</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14089,6 +14869,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14142,6 +14925,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14195,6 +14981,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14248,6 +15037,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14301,6 +15093,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14354,6 +15149,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14407,6 +15205,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14460,6 +15261,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14513,6 +15317,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14566,6 +15373,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14618,6 +15428,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -14763,10 +15576,14 @@
                 <c:pt idx="24">
                   <c:v>114</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>119</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
@@ -14779,9 +15596,12 @@
             <c:strRef>
               <c:f>Sheet1!$A$22:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Jamie Merrithew</c:v>
+                  <c:v>Jamie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merrithew</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14857,6 +15677,9 @@
                   <c:pt idx="24">
                     <c:v>172</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14910,6 +15733,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14963,6 +15789,9 @@
                   <c:pt idx="24">
                     <c:v>167</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>180</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15016,6 +15845,9 @@
                   <c:pt idx="24">
                     <c:v>147</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>157</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15069,6 +15901,9 @@
                   <c:pt idx="24">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>193</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15122,6 +15957,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>161</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15175,6 +16013,9 @@
                   <c:pt idx="24">
                     <c:v>153</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>163</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15228,6 +16069,9 @@
                   <c:pt idx="24">
                     <c:v>155</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>164</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15281,6 +16125,9 @@
                   <c:pt idx="24">
                     <c:v>158</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15334,6 +16181,9 @@
                   <c:pt idx="24">
                     <c:v>175</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15386,6 +16236,9 @@
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>176</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -15531,16 +16384,27 @@
                 <c:pt idx="24">
                   <c:v>127</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-437F-4312-8139-AB2F391DEF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="289268480"/>
         <c:axId val="289270016"/>
       </c:scatterChart>
@@ -15549,6 +16413,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15565,6 +16430,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -15608,6 +16474,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -15625,6 +16492,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -15673,7 +16541,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -15704,13 +16572,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15745,562 +16614,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16321,7 +16634,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16357,7 +16670,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4C3C9B-CF25-2E7A-716A-599657C66E64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C3C9B-CF25-2E7A-716A-599657C66E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16421,7 +16734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16453,9 +16766,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16487,6 +16818,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16662,14 +17011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -16686,7 +17035,7 @@
     <col min="25" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>45033</v>
       </c>
@@ -16775,7 +17124,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16833,8 +17182,14 @@
       <c r="AB2">
         <v>165</v>
       </c>
+      <c r="AD2">
+        <v>176</v>
+      </c>
+      <c r="AE2">
+        <v>179</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16892,8 +17247,14 @@
       <c r="AB3">
         <v>175</v>
       </c>
+      <c r="AD3">
+        <v>188</v>
+      </c>
+      <c r="AE3">
+        <v>189</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16951,8 +17312,14 @@
       <c r="AB4">
         <v>158</v>
       </c>
+      <c r="AD4">
+        <v>170</v>
+      </c>
+      <c r="AE4">
+        <v>170</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17010,8 +17377,14 @@
       <c r="AB5">
         <v>155</v>
       </c>
+      <c r="AD5">
+        <v>164</v>
+      </c>
+      <c r="AE5">
+        <v>165</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17069,8 +17442,14 @@
       <c r="AB6">
         <v>153</v>
       </c>
+      <c r="AD6">
+        <v>163</v>
+      </c>
+      <c r="AE6">
+        <v>163</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17128,8 +17507,14 @@
       <c r="AB7">
         <v>153</v>
       </c>
+      <c r="AD7">
+        <v>161</v>
+      </c>
+      <c r="AE7">
+        <v>162</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17187,8 +17572,14 @@
       <c r="AB8">
         <v>179</v>
       </c>
+      <c r="AD8">
+        <v>193</v>
+      </c>
+      <c r="AE8">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17246,8 +17637,14 @@
       <c r="AB9">
         <v>147</v>
       </c>
+      <c r="AD9">
+        <v>157</v>
+      </c>
+      <c r="AE9">
+        <v>160</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17305,8 +17702,14 @@
       <c r="AB10">
         <v>167</v>
       </c>
+      <c r="AD10">
+        <v>180</v>
+      </c>
+      <c r="AE10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17364,8 +17767,14 @@
       <c r="AB11">
         <v>167</v>
       </c>
+      <c r="AD11">
+        <v>179</v>
+      </c>
+      <c r="AE11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17423,8 +17832,14 @@
       <c r="AB12">
         <v>172</v>
       </c>
+      <c r="AD12">
+        <v>188</v>
+      </c>
+      <c r="AE12">
+        <v>188</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17485,8 +17900,14 @@
       <c r="AB13">
         <v>178</v>
       </c>
+      <c r="AD13">
+        <v>192</v>
+      </c>
+      <c r="AE13">
+        <v>195</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17544,8 +17965,14 @@
       <c r="AB14">
         <v>155</v>
       </c>
+      <c r="AD14">
+        <v>164</v>
+      </c>
+      <c r="AE14">
+        <v>164</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17603,8 +18030,14 @@
       <c r="AB15">
         <v>148</v>
       </c>
+      <c r="AD15">
+        <v>158</v>
+      </c>
+      <c r="AE15">
+        <v>159</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17665,8 +18098,14 @@
       <c r="AB16">
         <v>152</v>
       </c>
+      <c r="AD16">
+        <v>164</v>
+      </c>
+      <c r="AE16">
+        <v>165</v>
+      </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17724,8 +18163,14 @@
       <c r="AB17">
         <v>155</v>
       </c>
+      <c r="AD17">
+        <v>166</v>
+      </c>
+      <c r="AE17">
+        <v>173</v>
+      </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -17783,8 +18228,14 @@
       <c r="AB18">
         <v>142</v>
       </c>
+      <c r="AD18">
+        <v>148</v>
+      </c>
+      <c r="AE18">
+        <v>152</v>
+      </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -17842,8 +18293,14 @@
       <c r="AB19">
         <v>140</v>
       </c>
+      <c r="AD19">
+        <v>151</v>
+      </c>
+      <c r="AE19">
+        <v>151</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -17901,8 +18358,14 @@
       <c r="AB20">
         <v>132</v>
       </c>
+      <c r="AD20">
+        <v>139</v>
+      </c>
+      <c r="AE20">
+        <v>139</v>
+      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -17960,8 +18423,14 @@
       <c r="AB21">
         <v>114</v>
       </c>
+      <c r="AD21">
+        <v>119</v>
+      </c>
+      <c r="AE21">
+        <v>123</v>
+      </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -18018,6 +18487,12 @@
       </c>
       <c r="AB22">
         <v>127</v>
+      </c>
+      <c r="AD22">
+        <v>133</v>
+      </c>
+      <c r="AE22">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -18027,24 +18502,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python/Hockey pool/ongoing scores.xlsx
+++ b/Python/Hockey pool/ongoing scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418D88B-C42F-46E0-98AC-2374527DA859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1591D6D1-D69B-4F9E-A767-5DED4AD248B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23550" yWindow="-7185" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17012,9 +17012,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
@@ -17025,17 +17025,24 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="1.28515625" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
     <col min="12" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" customWidth="1"/>
-    <col min="18" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" customWidth="1"/>
+    <col min="18" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="0.85546875" customWidth="1"/>
+    <col min="24" max="24" width="0.5703125" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="8" customWidth="1"/>
+    <col min="29" max="29" width="1.7109375" customWidth="1"/>
+    <col min="30" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>45033</v>
       </c>
@@ -17123,8 +17130,59 @@
       <c r="AF1" s="1">
         <v>45061</v>
       </c>
+      <c r="AG1" s="1">
+        <v>45062</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>45063</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>45064</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>45065</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>45066</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>45067</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>45068</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>45069</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>45070</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>45071</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>45072</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>45073</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45074</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45075</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45076</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>45077</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>45078</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17188,8 +17246,11 @@
       <c r="AE2">
         <v>179</v>
       </c>
+      <c r="AG2">
+        <v>184</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17253,8 +17314,11 @@
       <c r="AE3">
         <v>189</v>
       </c>
+      <c r="AG3">
+        <v>197</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17318,8 +17382,11 @@
       <c r="AE4">
         <v>170</v>
       </c>
+      <c r="AG4">
+        <v>177</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17383,8 +17450,11 @@
       <c r="AE5">
         <v>165</v>
       </c>
+      <c r="AG5">
+        <v>169</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17448,8 +17518,11 @@
       <c r="AE6">
         <v>163</v>
       </c>
+      <c r="AG6">
+        <v>170</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17513,8 +17586,11 @@
       <c r="AE7">
         <v>162</v>
       </c>
+      <c r="AG7">
+        <v>165</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17578,8 +17654,11 @@
       <c r="AE8">
         <v>195</v>
       </c>
+      <c r="AG8">
+        <v>200</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17643,8 +17722,11 @@
       <c r="AE9">
         <v>160</v>
       </c>
+      <c r="AG9">
+        <v>165</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17708,8 +17790,11 @@
       <c r="AE10">
         <v>180</v>
       </c>
+      <c r="AG10">
+        <v>186</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17773,8 +17858,11 @@
       <c r="AE11">
         <v>180</v>
       </c>
+      <c r="AG11">
+        <v>188</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17838,8 +17926,11 @@
       <c r="AE12">
         <v>188</v>
       </c>
+      <c r="AG12">
+        <v>193</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17906,8 +17997,11 @@
       <c r="AE13">
         <v>195</v>
       </c>
+      <c r="AG13">
+        <v>199</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17971,8 +18065,11 @@
       <c r="AE14">
         <v>164</v>
       </c>
+      <c r="AG14">
+        <v>168</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -18036,8 +18133,11 @@
       <c r="AE15">
         <v>159</v>
       </c>
+      <c r="AG15">
+        <v>162</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -18104,8 +18204,11 @@
       <c r="AE16">
         <v>165</v>
       </c>
+      <c r="AG16">
+        <v>173</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -18169,8 +18272,11 @@
       <c r="AE17">
         <v>173</v>
       </c>
+      <c r="AG17">
+        <v>175</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -18234,8 +18340,11 @@
       <c r="AE18">
         <v>152</v>
       </c>
+      <c r="AG18">
+        <v>156</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -18299,8 +18408,11 @@
       <c r="AE19">
         <v>151</v>
       </c>
+      <c r="AG19">
+        <v>158</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -18364,8 +18476,11 @@
       <c r="AE20">
         <v>139</v>
       </c>
+      <c r="AG20">
+        <v>141</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -18429,8 +18544,11 @@
       <c r="AE21">
         <v>123</v>
       </c>
+      <c r="AG21">
+        <v>125</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -18493,6 +18611,9 @@
       </c>
       <c r="AE22">
         <v>133</v>
+      </c>
+      <c r="AG22">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/ongoing scores.xlsx
+++ b/Python/Hockey pool/ongoing scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1591D6D1-D69B-4F9E-A767-5DED4AD248B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AC884-7A02-4738-8624-9B99C788834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -306,6 +306,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -363,6 +381,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -419,6 +455,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -475,6 +529,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -531,6 +603,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -587,6 +677,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -643,6 +751,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -699,6 +825,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -755,6 +899,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -811,6 +973,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -867,6 +1047,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -949,6 +1147,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -956,10 +1193,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$AD$13</c:f>
+              <c:f>Sheet1!$D$13:$AQ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1013,6 +1250,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,9 +1301,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -1103,6 +1358,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1160,6 +1433,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1216,6 +1507,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1272,6 +1581,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1328,6 +1655,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1384,6 +1729,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1440,6 +1803,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1496,6 +1877,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1552,6 +1951,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1608,6 +2025,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -1664,6 +2099,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1746,6 +2199,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1753,10 +2245,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$AD$14</c:f>
+              <c:f>Sheet1!$D$14:$AQ$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1810,6 +2302,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,9 +2353,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -1900,6 +2410,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1957,6 +2485,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2013,6 +2559,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2069,6 +2633,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2125,6 +2707,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2181,6 +2781,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2237,6 +2855,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2293,6 +2929,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2349,6 +3003,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2405,6 +3077,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2461,6 +3151,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2543,6 +3251,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2550,10 +3297,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$AD$15</c:f>
+              <c:f>Sheet1!$D$15:$AQ$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2607,6 +3354,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,9 +3408,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -2700,6 +3465,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -2757,6 +3540,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2813,6 +3614,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2869,6 +3688,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2925,6 +3762,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -2981,6 +3836,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3037,6 +3910,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3093,6 +3984,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3149,6 +4058,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3205,6 +4132,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3261,6 +4206,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3343,6 +4306,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3350,10 +4352,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$AD$16</c:f>
+              <c:f>Sheet1!$D$16:$AQ$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
@@ -3407,6 +4409,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3440,9 +4460,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -3497,6 +4517,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3554,6 +4592,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3610,6 +4666,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3666,6 +4740,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3722,6 +4814,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3778,6 +4888,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3834,6 +4962,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3890,6 +5036,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -3946,6 +5110,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4002,6 +5184,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4058,6 +5258,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4140,6 +5358,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4147,10 +5404,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$AD$17</c:f>
+              <c:f>Sheet1!$D$17:$AQ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -4204,6 +5461,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,9 +5512,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -4294,6 +5569,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4351,6 +5644,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4407,6 +5718,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4463,6 +5792,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4519,6 +5866,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4575,6 +5940,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4631,6 +6014,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4687,6 +6088,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4743,6 +6162,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4799,6 +6236,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -4855,6 +6310,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -4937,6 +6410,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4944,10 +6456,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$AD$18</c:f>
+              <c:f>Sheet1!$D$18:$AQ$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
@@ -5001,6 +6513,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,9 +6564,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -5091,6 +6621,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5148,6 +6696,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5204,6 +6770,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5260,6 +6844,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5316,6 +6918,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5372,6 +6992,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5428,6 +7066,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5484,6 +7140,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5540,6 +7214,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5596,6 +7288,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -5652,6 +7362,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -5734,6 +7462,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5741,10 +7508,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$AD$19</c:f>
+              <c:f>Sheet1!$D$19:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
@@ -5798,6 +7565,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,9 +7616,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -5888,6 +7673,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5945,6 +7748,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6001,6 +7822,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6057,6 +7896,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6113,6 +7970,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6169,6 +8044,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6225,6 +8118,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6281,6 +8192,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6337,6 +8266,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6393,6 +8340,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6449,6 +8414,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -6531,6 +8514,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6538,10 +8560,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$AD$20</c:f>
+              <c:f>Sheet1!$D$20:$AQ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6595,6 +8617,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6628,9 +8668,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -6685,6 +8725,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6742,6 +8800,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6798,6 +8874,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6854,6 +8948,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6910,6 +9022,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -6966,6 +9096,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7022,6 +9170,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7078,6 +9244,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7134,6 +9318,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7190,6 +9392,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7246,6 +9466,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -7328,6 +9566,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7335,10 +9612,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$AD$21</c:f>
+              <c:f>Sheet1!$D$21:$AQ$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -7392,6 +9669,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7425,9 +9720,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -7482,6 +9777,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7539,6 +9852,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7595,6 +9926,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7651,6 +10000,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7707,6 +10074,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7763,6 +10148,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7819,6 +10222,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7875,6 +10296,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7931,6 +10370,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -7987,6 +10444,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8043,6 +10518,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -8125,6 +10618,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8132,10 +10664,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$AD$22</c:f>
+              <c:f>Sheet1!$D$22:$AQ$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -8189,6 +10721,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8357,9 +10907,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -8414,6 +10964,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -8471,6 +11039,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8527,6 +11113,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8583,6 +11187,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8639,6 +11261,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8695,6 +11335,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8751,6 +11409,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8807,6 +11483,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8863,6 +11557,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8919,6 +11631,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -8975,6 +11705,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9057,6 +11805,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9064,10 +11851,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$AD$13</c:f>
+              <c:f>Sheet1!$D$13:$AQ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -9121,6 +11908,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9163,9 +11968,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -9220,6 +12025,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -9277,6 +12100,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9333,6 +12174,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9389,6 +12248,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9445,6 +12322,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9501,6 +12396,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9557,6 +12470,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9613,6 +12544,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9669,6 +12618,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9725,6 +12692,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -9781,6 +12766,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -9863,6 +12866,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -9870,10 +12912,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$AD$14</c:f>
+              <c:f>Sheet1!$D$14:$AQ$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
@@ -9927,6 +12969,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9969,9 +13029,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -10026,6 +13086,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10083,6 +13161,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10139,6 +13235,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10195,6 +13309,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10251,6 +13383,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10307,6 +13457,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10363,6 +13531,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10419,6 +13605,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10475,6 +13679,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10531,6 +13753,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10587,6 +13827,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -10669,6 +13927,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -10676,10 +13973,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$AD$15</c:f>
+              <c:f>Sheet1!$D$15:$AQ$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -10733,6 +14030,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10778,9 +14093,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -10835,6 +14150,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10892,6 +14225,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -10948,6 +14299,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11004,6 +14373,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11060,6 +14447,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11116,6 +14521,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11172,6 +14595,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11228,6 +14669,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11284,6 +14743,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11340,6 +14817,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11396,6 +14891,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -11478,6 +14991,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11485,10 +15037,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$AD$16</c:f>
+              <c:f>Sheet1!$D$16:$AQ$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
@@ -11542,6 +15094,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11584,9 +15154,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -11641,6 +15211,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -11698,6 +15286,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11754,6 +15360,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11810,6 +15434,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11866,6 +15508,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11922,6 +15582,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -11978,6 +15656,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12034,6 +15730,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12090,6 +15804,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12146,6 +15878,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12202,6 +15952,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -12284,6 +16052,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -12291,10 +16098,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$AD$17</c:f>
+              <c:f>Sheet1!$D$17:$AQ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -12348,6 +16155,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12390,9 +16215,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -12447,6 +16272,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -12504,6 +16347,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12560,6 +16421,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12616,6 +16495,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12672,6 +16569,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12728,6 +16643,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12784,6 +16717,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12840,6 +16791,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12896,6 +16865,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -12952,6 +16939,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13008,6 +17013,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13090,6 +17113,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -13097,10 +17159,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$AD$18</c:f>
+              <c:f>Sheet1!$D$18:$AQ$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
@@ -13154,6 +17216,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13198,9 +17278,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -13255,6 +17335,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13312,6 +17410,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13368,6 +17484,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13424,6 +17558,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13480,6 +17632,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13536,6 +17706,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13592,6 +17780,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13648,6 +17854,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13704,6 +17928,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13760,6 +18002,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -13816,6 +18076,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -13898,6 +18176,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -13905,10 +18222,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$AD$19</c:f>
+              <c:f>Sheet1!$D$19:$AQ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
@@ -13962,6 +18279,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14006,9 +18341,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -14063,6 +18398,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -14120,6 +18473,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14176,6 +18547,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14232,6 +18621,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14288,6 +18695,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14344,6 +18769,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14400,6 +18843,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14456,6 +18917,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14512,6 +18991,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14568,6 +19065,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14624,6 +19139,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -14706,6 +19239,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -14713,10 +19285,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$AD$20</c:f>
+              <c:f>Sheet1!$D$20:$AQ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -14770,6 +19342,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14814,9 +19404,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -14871,6 +19461,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -14928,6 +19536,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -14984,6 +19610,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15040,6 +19684,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15096,6 +19758,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15152,6 +19832,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15208,6 +19906,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15264,6 +19980,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15320,6 +20054,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15376,6 +20128,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15432,6 +20202,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -15514,6 +20302,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -15521,10 +20348,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$AD$21</c:f>
+              <c:f>Sheet1!$D$21:$AQ$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -15578,6 +20405,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15622,9 +20467,9 @@
           </c:marker>
           <c:xVal>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$1:$AD$12</c:f>
+              <c:f>Sheet1!$D$1:$AQ$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>11</c:v>
@@ -15679,6 +20524,24 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>195</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -15736,6 +20599,24 @@
                   <c:pt idx="26">
                     <c:v>179</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>188</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15792,6 +20673,24 @@
                   <c:pt idx="26">
                     <c:v>180</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>186</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15848,6 +20747,24 @@
                   <c:pt idx="26">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>166</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15904,6 +20821,24 @@
                   <c:pt idx="26">
                     <c:v>193</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>200</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -15960,6 +20895,24 @@
                   <c:pt idx="26">
                     <c:v>161</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>165</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -16016,6 +20969,24 @@
                   <c:pt idx="26">
                     <c:v>163</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>171</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -16072,6 +21043,24 @@
                   <c:pt idx="26">
                     <c:v>164</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>170</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -16128,6 +21117,24 @@
                   <c:pt idx="26">
                     <c:v>170</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>179</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -16184,6 +21191,24 @@
                   <c:pt idx="26">
                     <c:v>188</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>198</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="1">
@@ -16240,6 +21265,24 @@
                   <c:pt idx="26">
                     <c:v>176</c:v>
                   </c:pt>
+                  <c:pt idx="27">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>185</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -16322,6 +21365,45 @@
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>2023-05-13</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2023-05-14</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2023-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2023-05-16</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023-05-17</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2023-05-18</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2023-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2023-05-20</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2023-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2023-05-22</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2023-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2023-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2023-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2023-05-26</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -16329,10 +21411,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$AD$22</c:f>
+              <c:f>Sheet1!$D$22:$AQ$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
@@ -16386,6 +21468,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17015,7 +22115,7 @@
   <dimension ref="A1:AW22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17246,8 +22346,20 @@
       <c r="AE2">
         <v>179</v>
       </c>
+      <c r="AF2">
+        <v>184</v>
+      </c>
       <c r="AG2">
         <v>184</v>
+      </c>
+      <c r="AH2">
+        <v>184</v>
+      </c>
+      <c r="AI2">
+        <v>184</v>
+      </c>
+      <c r="AJ2">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -17314,8 +22426,20 @@
       <c r="AE3">
         <v>189</v>
       </c>
+      <c r="AF3">
+        <v>197</v>
+      </c>
       <c r="AG3">
         <v>197</v>
+      </c>
+      <c r="AH3">
+        <v>197</v>
+      </c>
+      <c r="AI3">
+        <v>197</v>
+      </c>
+      <c r="AJ3">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -17382,8 +22506,20 @@
       <c r="AE4">
         <v>170</v>
       </c>
+      <c r="AF4">
+        <v>177</v>
+      </c>
       <c r="AG4">
         <v>177</v>
+      </c>
+      <c r="AH4">
+        <v>177</v>
+      </c>
+      <c r="AI4">
+        <v>177</v>
+      </c>
+      <c r="AJ4">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -17450,8 +22586,20 @@
       <c r="AE5">
         <v>165</v>
       </c>
+      <c r="AF5">
+        <v>169</v>
+      </c>
       <c r="AG5">
         <v>169</v>
+      </c>
+      <c r="AH5">
+        <v>169</v>
+      </c>
+      <c r="AI5">
+        <v>169</v>
+      </c>
+      <c r="AJ5">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -17518,8 +22666,20 @@
       <c r="AE6">
         <v>163</v>
       </c>
+      <c r="AF6">
+        <v>170</v>
+      </c>
       <c r="AG6">
         <v>170</v>
+      </c>
+      <c r="AH6">
+        <v>170</v>
+      </c>
+      <c r="AI6">
+        <v>170</v>
+      </c>
+      <c r="AJ6">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -17586,7 +22746,19 @@
       <c r="AE7">
         <v>162</v>
       </c>
+      <c r="AF7">
+        <v>165</v>
+      </c>
       <c r="AG7">
+        <v>165</v>
+      </c>
+      <c r="AH7">
+        <v>165</v>
+      </c>
+      <c r="AI7">
+        <v>165</v>
+      </c>
+      <c r="AJ7">
         <v>165</v>
       </c>
     </row>
@@ -17654,7 +22826,19 @@
       <c r="AE8">
         <v>195</v>
       </c>
+      <c r="AF8">
+        <v>200</v>
+      </c>
       <c r="AG8">
+        <v>200</v>
+      </c>
+      <c r="AH8">
+        <v>200</v>
+      </c>
+      <c r="AI8">
+        <v>200</v>
+      </c>
+      <c r="AJ8">
         <v>200</v>
       </c>
     </row>
@@ -17722,8 +22906,20 @@
       <c r="AE9">
         <v>160</v>
       </c>
+      <c r="AF9">
+        <v>165</v>
+      </c>
       <c r="AG9">
         <v>165</v>
+      </c>
+      <c r="AH9">
+        <v>165</v>
+      </c>
+      <c r="AI9">
+        <v>165</v>
+      </c>
+      <c r="AJ9">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -17790,7 +22986,19 @@
       <c r="AE10">
         <v>180</v>
       </c>
+      <c r="AF10">
+        <v>186</v>
+      </c>
       <c r="AG10">
+        <v>186</v>
+      </c>
+      <c r="AH10">
+        <v>186</v>
+      </c>
+      <c r="AI10">
+        <v>186</v>
+      </c>
+      <c r="AJ10">
         <v>186</v>
       </c>
     </row>
@@ -17858,7 +23066,19 @@
       <c r="AE11">
         <v>180</v>
       </c>
+      <c r="AF11">
+        <v>188</v>
+      </c>
       <c r="AG11">
+        <v>188</v>
+      </c>
+      <c r="AH11">
+        <v>188</v>
+      </c>
+      <c r="AI11">
+        <v>188</v>
+      </c>
+      <c r="AJ11">
         <v>188</v>
       </c>
     </row>
@@ -17926,8 +23146,20 @@
       <c r="AE12">
         <v>188</v>
       </c>
+      <c r="AF12">
+        <v>193</v>
+      </c>
       <c r="AG12">
         <v>193</v>
+      </c>
+      <c r="AH12">
+        <v>193</v>
+      </c>
+      <c r="AI12">
+        <v>193</v>
+      </c>
+      <c r="AJ12">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -17997,8 +23229,20 @@
       <c r="AE13">
         <v>195</v>
       </c>
+      <c r="AF13">
+        <v>199</v>
+      </c>
       <c r="AG13">
         <v>199</v>
+      </c>
+      <c r="AH13">
+        <v>199</v>
+      </c>
+      <c r="AI13">
+        <v>199</v>
+      </c>
+      <c r="AJ13">
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
@@ -18065,8 +23309,20 @@
       <c r="AE14">
         <v>164</v>
       </c>
+      <c r="AF14">
+        <v>168</v>
+      </c>
       <c r="AG14">
         <v>168</v>
+      </c>
+      <c r="AH14">
+        <v>168</v>
+      </c>
+      <c r="AI14">
+        <v>168</v>
+      </c>
+      <c r="AJ14">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
@@ -18133,8 +23389,20 @@
       <c r="AE15">
         <v>159</v>
       </c>
+      <c r="AF15">
+        <v>162</v>
+      </c>
       <c r="AG15">
         <v>162</v>
+      </c>
+      <c r="AH15">
+        <v>162</v>
+      </c>
+      <c r="AI15">
+        <v>162</v>
+      </c>
+      <c r="AJ15">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
@@ -18204,11 +23472,23 @@
       <c r="AE16">
         <v>165</v>
       </c>
+      <c r="AF16">
+        <v>173</v>
+      </c>
       <c r="AG16">
         <v>173</v>
       </c>
+      <c r="AH16">
+        <v>173</v>
+      </c>
+      <c r="AI16">
+        <v>173</v>
+      </c>
+      <c r="AJ16">
+        <v>173</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -18272,11 +23552,23 @@
       <c r="AE17">
         <v>173</v>
       </c>
+      <c r="AF17">
+        <v>175</v>
+      </c>
       <c r="AG17">
         <v>175</v>
       </c>
+      <c r="AH17">
+        <v>175</v>
+      </c>
+      <c r="AI17">
+        <v>175</v>
+      </c>
+      <c r="AJ17">
+        <v>175</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -18340,11 +23632,23 @@
       <c r="AE18">
         <v>152</v>
       </c>
+      <c r="AF18">
+        <v>156</v>
+      </c>
       <c r="AG18">
         <v>156</v>
       </c>
+      <c r="AH18">
+        <v>156</v>
+      </c>
+      <c r="AI18">
+        <v>156</v>
+      </c>
+      <c r="AJ18">
+        <v>156</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -18408,11 +23712,23 @@
       <c r="AE19">
         <v>151</v>
       </c>
+      <c r="AF19">
+        <v>158</v>
+      </c>
       <c r="AG19">
         <v>158</v>
       </c>
+      <c r="AH19">
+        <v>158</v>
+      </c>
+      <c r="AI19">
+        <v>158</v>
+      </c>
+      <c r="AJ19">
+        <v>158</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -18476,11 +23792,23 @@
       <c r="AE20">
         <v>139</v>
       </c>
+      <c r="AF20">
+        <v>141</v>
+      </c>
       <c r="AG20">
         <v>141</v>
       </c>
+      <c r="AH20">
+        <v>141</v>
+      </c>
+      <c r="AI20">
+        <v>141</v>
+      </c>
+      <c r="AJ20">
+        <v>142</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -18544,11 +23872,23 @@
       <c r="AE21">
         <v>123</v>
       </c>
+      <c r="AF21">
+        <v>125</v>
+      </c>
       <c r="AG21">
         <v>125</v>
       </c>
+      <c r="AH21">
+        <v>125</v>
+      </c>
+      <c r="AI21">
+        <v>125</v>
+      </c>
+      <c r="AJ21">
+        <v>126</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -18612,8 +23952,20 @@
       <c r="AE22">
         <v>133</v>
       </c>
+      <c r="AF22">
+        <v>137</v>
+      </c>
       <c r="AG22">
         <v>137</v>
+      </c>
+      <c r="AH22">
+        <v>137</v>
+      </c>
+      <c r="AI22">
+        <v>137</v>
+      </c>
+      <c r="AJ22">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
